--- a/trunk/info/taxi_workflow.xlsx
+++ b/trunk/info/taxi_workflow.xlsx
@@ -100,7 +100,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,8 +157,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF4A0EE0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,6 +219,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4A0EE0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,7 +269,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -242,6 +294,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -249,6 +310,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF4A0EE0"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -256,13 +322,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>31807</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>31805</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>302152</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>47707</xdr:rowOff>
@@ -620,26 +686,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.9"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="23.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="1" customWidth="1"/>
-    <col min="4" max="18" width="4.88671875" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="3.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" style="1" customWidth="1"/>
+    <col min="5" max="19" width="4.88671875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="20.05" customHeight="1">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:19" ht="20.05" customHeight="1">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -650,139 +716,143 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="D2" s="17" t="s">
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="E2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="17"/>
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="17"/>
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
-    </row>
-    <row r="3" spans="1:18" ht="21.95" customHeight="1">
+      <c r="N2" s="17"/>
+    </row>
+    <row r="3" spans="1:19" ht="21.95" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
         <v>26</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>27</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>28</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>29</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>30</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="3">
         <v>2</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="3">
         <v>3</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
         <v>4</v>
       </c>
-      <c r="L3" s="3">
+      <c r="M3" s="3">
         <v>5</v>
       </c>
-      <c r="M3" s="3">
+      <c r="N3" s="3">
         <v>6</v>
       </c>
-      <c r="N3" s="3">
+      <c r="O3" s="3">
         <v>9</v>
       </c>
-      <c r="O3" s="3">
+      <c r="P3" s="3">
         <v>10</v>
       </c>
-      <c r="P3" s="3">
+      <c r="Q3" s="3">
         <v>11</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="R3" s="3">
         <v>12</v>
       </c>
-      <c r="R3" s="3">
+      <c r="S3" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="13.8" customHeight="1">
+    <row r="4" spans="1:19" ht="13.8" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="9"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="4"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="1:18" ht="13.8" customHeight="1">
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:19" ht="13.8" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="4"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="15"/>
+      <c r="H5" s="4"/>
       <c r="I5" s="15"/>
-      <c r="J5" s="4"/>
+      <c r="J5" s="15"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:18" ht="13.8" customHeight="1">
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" ht="13.8" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="10"/>
-    </row>
-    <row r="7" spans="1:18" ht="13.8" customHeight="1">
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="1:19" ht="13.8" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="10"/>
+      <c r="K7" s="12"/>
       <c r="L7" s="10"/>
-    </row>
-    <row r="8" spans="1:18" ht="13.8" customHeight="1">
-      <c r="D8" s="4"/>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="1:19" ht="13.8" customHeight="1">
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -792,127 +862,136 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="1:18" ht="13.8" customHeight="1">
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:19" ht="13.8" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="13"/>
-    </row>
-    <row r="10" spans="1:18" ht="13.8" customHeight="1">
+      <c r="D9" s="6"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="1:19" ht="13.8" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="13"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="13"/>
-    </row>
-    <row r="11" spans="1:18" ht="13.8" customHeight="1">
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:19" ht="13.8" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="11"/>
       <c r="E11" s="11"/>
-      <c r="F11" s="8"/>
+      <c r="F11" s="11"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="4"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="1:18" ht="13.8" customHeight="1">
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:19" ht="13.8" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:18" ht="13.8" customHeight="1">
+      <c r="D12" s="6"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="1:19" ht="13.8" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="I13" s="13"/>
-    </row>
-    <row r="14" spans="1:18" ht="13.8" customHeight="1">
+      <c r="D13" s="6"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:19" ht="13.8" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="25"/>
+      <c r="C14" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="13"/>
       <c r="K14" s="13"/>
-    </row>
-    <row r="15" spans="1:18" ht="13.8" customHeight="1">
-      <c r="B15" s="1" t="s">
+      <c r="L14" s="13"/>
+    </row>
+    <row r="15" spans="1:19" ht="13.8" customHeight="1">
+      <c r="B15" s="25"/>
+      <c r="C15" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="13"/>
       <c r="L15" s="13"/>
-    </row>
-    <row r="17" spans="1:16" ht="13.8" customHeight="1">
-      <c r="B17" s="1" t="s">
+      <c r="M15" s="13"/>
+    </row>
+    <row r="17" spans="1:17" ht="13.8" customHeight="1">
+      <c r="B17" s="13"/>
+      <c r="C17" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="12"/>
-    </row>
-    <row r="18" spans="1:16" ht="13.8" customHeight="1"/>
-    <row r="19" spans="1:16" ht="13.8" customHeight="1">
-      <c r="B19" s="7" t="s">
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="1:17" ht="13.8" customHeight="1"/>
+    <row r="19" spans="1:17" ht="13.8" customHeight="1">
+      <c r="C19" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="13.8" customHeight="1">
+    <row r="20" spans="1:17" ht="13.8" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="26"/>
+      <c r="C20" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L20" s="16"/>
-      <c r="M20" s="14"/>
+      <c r="M20" s="16"/>
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
-    </row>
-    <row r="21" spans="1:16" ht="13.8" customHeight="1"/>
-    <row r="22" spans="1:16" ht="13.8" customHeight="1"/>
-    <row r="23" spans="1:16" ht="13.8" customHeight="1"/>
+      <c r="Q20" s="14"/>
+    </row>
+    <row r="21" spans="1:17" ht="13.8" customHeight="1"/>
+    <row r="22" spans="1:17" ht="13.8" customHeight="1"/>
+    <row r="23" spans="1:17" ht="13.8" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/trunk/info/taxi_workflow.xlsx
+++ b/trunk/info/taxi_workflow.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>Taxi</t>
   </si>
@@ -51,9 +51,6 @@
     <t>จัดการประเภทพนักงาน</t>
   </si>
   <si>
-    <t>จัดการโทรศํพท์</t>
-  </si>
-  <si>
     <t>จัดการกะเวลาพนักงานขับรถ</t>
   </si>
   <si>
@@ -94,13 +91,28 @@
   </si>
   <si>
     <t>จัดการข้อมูลส่วนตัว</t>
+  </si>
+  <si>
+    <t>จัดการโทรศํพท์ + เครือข่ายมือถือ</t>
+  </si>
+  <si>
+    <t>ข่าวสาร</t>
+  </si>
+  <si>
+    <t>โปรโมชั่น</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Web Service</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +202,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Wingdings 2"/>
+      <family val="1"/>
+      <charset val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -224,19 +243,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4A0EE0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,7 +288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -291,18 +310,22 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -323,14 +346,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>31807</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>31805</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>7950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>302152</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>341908</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>47707</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -340,7 +363,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2345637" y="4015408"/>
+          <a:off x="1113184" y="4619707"/>
           <a:ext cx="3904091" cy="1701579"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -686,27 +709,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.9"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="3.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" style="1" customWidth="1"/>
-    <col min="5" max="19" width="4.88671875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="3.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" style="1" customWidth="1"/>
+    <col min="6" max="20" width="4.88671875" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="20.05" customHeight="1">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:20" ht="20.05" customHeight="1">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -717,143 +740,150 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="E2" s="17" t="s">
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="F2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17" t="s">
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-    </row>
-    <row r="3" spans="1:19" ht="21.95" customHeight="1">
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+    </row>
+    <row r="3" spans="1:20" ht="21.95" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3">
         <v>26</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>27</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>28</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>29</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="3">
         <v>30</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="3">
         <v>2</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
         <v>3</v>
       </c>
-      <c r="L3" s="3">
+      <c r="M3" s="3">
         <v>4</v>
       </c>
-      <c r="M3" s="3">
+      <c r="N3" s="3">
         <v>5</v>
       </c>
-      <c r="N3" s="3">
+      <c r="O3" s="3">
         <v>6</v>
       </c>
-      <c r="O3" s="3">
+      <c r="P3" s="3">
         <v>9</v>
       </c>
-      <c r="P3" s="3">
+      <c r="Q3" s="3">
         <v>10</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="R3" s="3">
         <v>11</v>
       </c>
-      <c r="R3" s="3">
+      <c r="S3" s="3">
         <v>12</v>
       </c>
-      <c r="S3" s="3">
+      <c r="T3" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="13.8" customHeight="1">
+    <row r="4" spans="1:20" ht="13.8" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="20" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="9"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="4"/>
+      <c r="I4" s="9"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:19" ht="13.8" customHeight="1">
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="1:20" ht="13.8" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="20" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="4"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="15"/>
+      <c r="I5" s="4"/>
       <c r="J5" s="15"/>
-      <c r="K5" s="4"/>
+      <c r="K5" s="15"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:19" ht="13.8" customHeight="1">
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:20" ht="13.8" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" spans="1:19" ht="13.8" customHeight="1">
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:20" ht="13.8" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="10"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="12"/>
       <c r="M7" s="10"/>
-    </row>
-    <row r="8" spans="1:19" ht="13.8" customHeight="1">
-      <c r="E8" s="4"/>
+      <c r="N7" s="10"/>
+    </row>
+    <row r="8" spans="1:20" ht="13.8" customHeight="1">
+      <c r="B8" s="26"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -863,135 +893,173 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="1:19" ht="13.8" customHeight="1">
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="1:20" ht="13.8" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="26"/>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="1:19" ht="13.8" customHeight="1">
+      <c r="E9" s="6"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:20" ht="13.8" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="13"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="1:19" ht="13.8" customHeight="1">
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:20" ht="13.8" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="20" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F11" s="11"/>
-      <c r="G11" s="8"/>
+      <c r="G11" s="11"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="4"/>
+      <c r="I11" s="8"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="1:19" ht="13.8" customHeight="1">
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="1:20" ht="13.8" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="I12" s="13"/>
-    </row>
-    <row r="13" spans="1:19" ht="13.8" customHeight="1">
+      <c r="B12" s="26"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:20" ht="13.8" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="19" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="J13" s="13"/>
-    </row>
-    <row r="14" spans="1:19" ht="13.8" customHeight="1">
+      <c r="E13" s="6"/>
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" spans="1:20" ht="13.8" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="19" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" s="13"/>
       <c r="L14" s="13"/>
-    </row>
-    <row r="15" spans="1:19" ht="13.8" customHeight="1">
-      <c r="B15" s="25"/>
-      <c r="C15" s="19" t="s">
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" spans="1:20" ht="13.8" customHeight="1">
+      <c r="B15" s="26"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" s="13"/>
       <c r="M15" s="13"/>
-    </row>
-    <row r="17" spans="1:17" ht="13.8" customHeight="1">
-      <c r="B17" s="13"/>
-      <c r="C17" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="12"/>
-    </row>
-    <row r="18" spans="1:17" ht="13.8" customHeight="1"/>
-    <row r="19" spans="1:17" ht="13.8" customHeight="1">
-      <c r="C19" s="7" t="s">
+      <c r="N15" s="13"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="B16" s="26"/>
+    </row>
+    <row r="17" spans="1:18" ht="13.8" customHeight="1">
+      <c r="B17" s="26"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" spans="1:18" ht="13.8" customHeight="1">
+      <c r="B18" s="26"/>
+    </row>
+    <row r="19" spans="1:18" ht="13.8" customHeight="1">
+      <c r="B19" s="26"/>
+      <c r="D19" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="13.8" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" ht="13.8" customHeight="1">
-      <c r="A20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="18" t="s">
+      <c r="E20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M20" s="16"/>
-      <c r="N20" s="14"/>
+      <c r="N20" s="16"/>
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
       <c r="Q20" s="14"/>
-    </row>
-    <row r="21" spans="1:17" ht="13.8" customHeight="1"/>
-    <row r="22" spans="1:17" ht="13.8" customHeight="1"/>
-    <row r="23" spans="1:17" ht="13.8" customHeight="1"/>
+      <c r="R20" s="14"/>
+    </row>
+    <row r="21" spans="1:18" ht="13.8" customHeight="1">
+      <c r="B21" s="26"/>
+    </row>
+    <row r="22" spans="1:18" ht="13.8" customHeight="1">
+      <c r="B22" s="26"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="13.8" customHeight="1">
+      <c r="B23" s="26"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="D25" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/trunk/info/taxi_workflow.xlsx
+++ b/trunk/info/taxi_workflow.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>Taxi</t>
   </si>
@@ -93,9 +93,6 @@
     <t>จัดการข้อมูลส่วนตัว</t>
   </si>
   <si>
-    <t>จัดการโทรศํพท์ + เครือข่ายมือถือ</t>
-  </si>
-  <si>
     <t>ข่าวสาร</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>Web Service</t>
+  </si>
+  <si>
+    <t>จัดการโทรศํพท์</t>
   </si>
 </sst>
 </file>
@@ -211,7 +211,7 @@
       <charset val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,6 +259,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -288,7 +294,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -326,6 +332,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -346,15 +353,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>7950</xdr:rowOff>
+      <xdr:colOff>1574360</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>127220</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>341908</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>47707</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>166980</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>143122</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -363,7 +370,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1113184" y="4619707"/>
+          <a:off x="2687543" y="4110823"/>
           <a:ext cx="3904091" cy="1701579"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -712,7 +719,7 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.9"/>
@@ -912,7 +919,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="1" t="s">
@@ -949,10 +956,12 @@
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="26"/>
+      <c r="B12" s="26" t="s">
+        <v>27</v>
+      </c>
       <c r="C12" s="24"/>
       <c r="D12" s="17" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E12" s="6"/>
       <c r="J12" s="13"/>
@@ -985,7 +994,9 @@
       <c r="M14" s="13"/>
     </row>
     <row r="15" spans="1:20" ht="13.8" customHeight="1">
-      <c r="B15" s="26"/>
+      <c r="B15" s="26" t="s">
+        <v>27</v>
+      </c>
       <c r="C15" s="23"/>
       <c r="D15" s="18" t="s">
         <v>15</v>
@@ -1041,19 +1052,20 @@
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="13.8" customHeight="1">
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:18">
+      <c r="C25" s="29"/>
       <c r="D25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/info/taxi_workflow.xlsx
+++ b/trunk/info/taxi_workflow.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>Taxi</t>
   </si>
@@ -329,10 +329,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -352,16 +352,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1574360</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>127220</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7952</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>166978</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>166980</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>143122</xdr:rowOff>
+      <xdr:colOff>278297</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>135173</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -370,7 +370,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2687543" y="4110823"/>
+          <a:off x="2798860" y="3800724"/>
           <a:ext cx="3904091" cy="1701579"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -719,7 +719,7 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.9"/>
@@ -750,20 +750,20 @@
       <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28" t="s">
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
     </row>
     <row r="3" spans="1:20" ht="21.95" customHeight="1">
       <c r="A3" s="3" t="s">
@@ -933,7 +933,9 @@
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="26"/>
+      <c r="B11" s="26" t="s">
+        <v>27</v>
+      </c>
       <c r="C11" s="21"/>
       <c r="D11" s="19" t="s">
         <v>10</v>
@@ -982,7 +984,9 @@
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="26"/>
+      <c r="B14" s="26" t="s">
+        <v>27</v>
+      </c>
       <c r="C14" s="23"/>
       <c r="D14" s="18" t="s">
         <v>11</v>
@@ -1063,7 +1067,7 @@
       </c>
     </row>
     <row r="25" spans="1:18">
-      <c r="C25" s="29"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="1" t="s">
         <v>28</v>
       </c>

--- a/trunk/info/taxi_workflow.xlsx
+++ b/trunk/info/taxi_workflow.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>Taxi</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Menu</t>
   </si>
   <si>
-    <t>จัดการตารางงาน</t>
-  </si>
-  <si>
     <t>**เก็บข้อมูล คนขับ โทรศัพท์ รถแท๊กซี่</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>จัดการโทรศํพท์</t>
+  </si>
+  <si>
+    <t>ลงเวลางาน</t>
   </si>
 </sst>
 </file>
@@ -353,15 +353,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>7952</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>166978</xdr:rowOff>
+      <xdr:colOff>1343771</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>7952</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>278297</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>135173</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>214687</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -370,7 +370,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2798860" y="3800724"/>
+          <a:off x="4134679" y="3816627"/>
           <a:ext cx="3904091" cy="1701579"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -719,7 +719,7 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.9"/>
@@ -767,7 +767,7 @@
     </row>
     <row r="3" spans="1:20" ht="21.95" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -827,7 +827,9 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="26" t="s">
+        <v>26</v>
+      </c>
       <c r="C4" s="21"/>
       <c r="D4" s="19" t="s">
         <v>3</v>
@@ -872,7 +874,7 @@
       <c r="B6" s="26"/>
       <c r="C6" s="27"/>
       <c r="D6" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L6" s="10"/>
     </row>
@@ -883,7 +885,7 @@
       <c r="B7" s="26"/>
       <c r="C7" s="25"/>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L7" s="12"/>
       <c r="M7" s="10"/>
@@ -906,7 +908,9 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="26"/>
+      <c r="B9" s="26" t="s">
+        <v>26</v>
+      </c>
       <c r="C9" s="24"/>
       <c r="D9" s="17" t="s">
         <v>5</v>
@@ -919,7 +923,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="1" t="s">
@@ -934,7 +938,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="19" t="s">
@@ -959,11 +963,11 @@
         <v>7</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="6"/>
       <c r="J12" s="13"/>
@@ -985,7 +989,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="18" t="s">
@@ -998,15 +1002,13 @@
       <c r="M14" s="13"/>
     </row>
     <row r="15" spans="1:20" ht="13.8" customHeight="1">
-      <c r="B15" s="26" t="s">
-        <v>27</v>
-      </c>
+      <c r="B15" s="26"/>
       <c r="C15" s="23"/>
       <c r="D15" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
@@ -1018,7 +1020,7 @@
       <c r="B17" s="26"/>
       <c r="C17" s="21"/>
       <c r="D17" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L17" s="12"/>
     </row>
@@ -1028,20 +1030,20 @@
     <row r="19" spans="1:18" ht="13.8" customHeight="1">
       <c r="B19" s="26"/>
       <c r="D19" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="13.8" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="26"/>
       <c r="C20" s="24"/>
       <c r="D20" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="N20" s="16"/>
       <c r="O20" s="14"/>
@@ -1056,20 +1058,20 @@
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="13.8" customHeight="1">
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="C25" s="28"/>
       <c r="D25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
